--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>用例序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +170,16 @@
   </si>
   <si>
     <t>流水操作7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面操作</t>
+  </si>
+  <si>
+    <t>页面检查</t>
+  </si>
+  <si>
+    <t>第一个参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,7 +405,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -460,6 +470,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -826,7 +839,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -876,18 +891,24 @@
       <c r="P1" s="15"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="7">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="8"/>
+      <c r="F2" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="16"/>
@@ -900,12 +921,16 @@
       <c r="P2" s="18"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="7"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="C3" s="8">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="E3" s="8" t="s">
         <v>33</v>
       </c>
@@ -922,12 +947,16 @@
       <c r="P3" s="18"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="7"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="C4" s="8">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="E4" s="8" t="s">
         <v>35</v>
       </c>
@@ -944,12 +973,16 @@
       <c r="P4" s="18"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="7"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="C5" s="8">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="E5" s="8" t="s">
         <v>37</v>
       </c>
@@ -966,12 +999,16 @@
       <c r="P5" s="18"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="7"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="8">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -986,10 +1023,18 @@
       <c r="P6" s="18"/>
     </row>
     <row r="7" spans="1:16" ht="15" thickBot="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="A7" s="22">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -1004,19 +1049,29 @@
       <c r="P7" s="21"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8">
+        <v>3</v>
+      </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -1024,9 +1079,13 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="8">
+        <v>4</v>
+      </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -1034,9 +1093,13 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8">
+        <v>5</v>
+      </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -1344,8 +1407,10 @@
       <c r="H41" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="I1:P7"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="7">

--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>用例序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,23 +153,14 @@
   </si>
   <si>
     <t>流水操作5</t>
-  </si>
-  <si>
-    <t>流水操作5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>流水操作6</t>
-  </si>
-  <si>
-    <t>流水操作6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>流水操作7</t>
-  </si>
-  <si>
-    <t>流水操作7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -181,6 +172,27 @@
   <si>
     <t>第一个参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记账页面4</t>
+  </si>
+  <si>
+    <t>流水操作1</t>
+  </si>
+  <si>
+    <t>流水操作4</t>
+  </si>
+  <si>
+    <t>开始页面2</t>
+  </si>
+  <si>
+    <t>流水操作3</t>
+  </si>
+  <si>
+    <t>记账页面3</t>
+  </si>
+  <si>
+    <t>记账页面5</t>
   </si>
 </sst>
 </file>
@@ -840,7 +852,7 @@
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -901,13 +913,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -929,10 +941,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -955,10 +967,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -981,10 +993,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -1007,9 +1019,11 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -1033,9 +1047,11 @@
         <v>1</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -1057,9 +1073,11 @@
         <v>2</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
@@ -1073,7 +1091,9 @@
         <v>3</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="E9" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
@@ -1087,7 +1107,9 @@
         <v>4</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
@@ -1101,7 +1123,9 @@
         <v>5</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -1413,7 +1437,7 @@
     <mergeCell ref="A7:A11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="7">
+  <dataValidations count="5">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576 C2:C1048576">
       <formula1>1</formula1>
       <formula2>9999</formula2>
@@ -1424,17 +1448,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
       <formula1>页面!A1:C1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
-      <formula1>INDIRECT($B$2)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1001:E1048576">
+      <formula1>INDIRECT(B1002)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3">
-      <formula1>INDIRECT($B$3)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
-      <formula1>INDIRECT($B$3)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5">
-      <formula1>INDIRECT($B$4)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1000">
+      <formula1>INDIRECT(B2)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1446,9 +1464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1518,7 +1534,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1529,7 +1545,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1540,7 +1556,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
